--- a/medicine/Sexualité et sexologie/Le_Livre_de_Gomorrhe/Le_Livre_de_Gomorrhe.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Livre_de_Gomorrhe/Le_Livre_de_Gomorrhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Livre de Gomorrhe (en latin : Liber Gomorrhianus) est un pamphlet de Pierre Damien, moine bénédictin, sorti entre vers 1050 et adressé au pape Léon IX, dans lequel l'auteur dénonce le mauvais comportement du clergé catholique.
@@ -512,9 +524,11 @@
           <t>Genèse de l'œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Damien écrit son livre en 1050-1051 afin de dénoncer les vices du clergé, dont il est scandalisé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Damien écrit son livre en 1050-1051 afin de dénoncer les vices du clergé, dont il est scandalisé.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Préface de Léon IX
 Le pape Léon IX commence par saluer Pierre Damien, « ô fils très cher ». Il le remercie pour son combat contre la débauche du clergé. Afin que les fidèles n'aient pas de craintes ou d'incertitude à lire le Livre de Gomorrhe, le pape fait savoir qu'il approuve tout ce que contient l'ouvrage. Le souverain pontife décrète que les personnes tombant dans les « quatre genres d'impureté » dénoncées dans le livre ne peuvent servir l'Église et doivent être expulsées des ordres religieux, sauf celles qui commirent les crimes de masturbation (seules ou à plusieurs) et le coït intercrural — après avoir fait pénitence. De même, la personne entretenant le péché et celle qui se meurt dedans sont condamnées à la mort. Léon IX termine par un petit éloge de Pierre Damien, dont il célèbre l'enseignement par les actes, certain que Dieu le Père et Jésus Christ l'accueilleront dans le Paradis.
